--- a/paper/問卷.xlsx
+++ b/paper/問卷.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150" activeTab="2"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="94">
   <si>
     <t>時間戳記</t>
   </si>
@@ -390,18 +390,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Both</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Back</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Front</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Flip</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -419,6 +407,34 @@
   </si>
   <si>
     <t>Easy to learn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">It is not surprising that the bothside gestures are more intuitive than back-side or frontside. </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>however, most people are accostumed to using touch screen on front-side so most users think it is easier to drag and stretch objects on frontside.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>and we also find out that the stretch gesture is hard for bothside manipulation which is agree with our userstudy.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>over all, most user think it is easy to grab the object no metter which manipulation we use. And the reason is that grab is a simple gesture</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Both-side</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back-side</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front-side</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -562,6 +578,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -679,7 +698,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Both</c:v>
+                  <c:v>Both-side</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -714,7 +733,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8571428571428572</c:v>
+                  <c:v>4.6571428571428601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,7 +748,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Back</c:v>
+                  <c:v>Back-side</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -761,10 +780,10 @@
                   <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4300000000000002</c:v>
+                  <c:v>2.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7857142857142856</c:v>
+                  <c:v>4.28571428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,7 +798,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Front</c:v>
+                  <c:v>Front-side</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -820,24 +839,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="148833792"/>
-        <c:axId val="148835328"/>
+        <c:axId val="34613504"/>
+        <c:axId val="34631680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148833792"/>
+        <c:axId val="34613504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148835328"/>
+        <c:crossAx val="34631680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148835328"/>
+        <c:axId val="34631680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -845,7 +864,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148833792"/>
+        <c:crossAx val="34613504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -858,7 +877,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -901,7 +920,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Both</c:v>
+                  <c:v>Both-side</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -951,7 +970,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Back</c:v>
+                  <c:v>Back-side</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -986,7 +1005,7 @@
                   <c:v>3.8571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1</c:v>
+                  <c:v>3.5164300000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1001,7 +1020,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Front</c:v>
+                  <c:v>Front-side</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1042,24 +1061,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="148882944"/>
-        <c:axId val="148884480"/>
+        <c:axId val="34653696"/>
+        <c:axId val="34655232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148882944"/>
+        <c:axId val="34653696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148884480"/>
+        <c:crossAx val="34655232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148884480"/>
+        <c:axId val="34655232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1067,7 +1086,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148882944"/>
+        <c:crossAx val="34653696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1080,7 +1099,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1124,7 +1143,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Both</c:v>
+                  <c:v>Both-side</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1174,7 +1193,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Back</c:v>
+                  <c:v>Back-side</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1224,7 +1243,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Front</c:v>
+                  <c:v>Front-side</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1265,24 +1284,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="149386368"/>
-        <c:axId val="149387904"/>
+        <c:axId val="34701696"/>
+        <c:axId val="34703232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="149386368"/>
+        <c:axId val="34701696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149387904"/>
+        <c:crossAx val="34703232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149387904"/>
+        <c:axId val="34703232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1291,7 +1310,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149386368"/>
+        <c:crossAx val="34701696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1304,7 +1323,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1439,24 +1458,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="149404672"/>
-        <c:axId val="149406464"/>
+        <c:axId val="77273344"/>
+        <c:axId val="77279232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="149404672"/>
+        <c:axId val="77273344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149406464"/>
+        <c:crossAx val="77279232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149406464"/>
+        <c:axId val="77279232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1465,7 +1484,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149404672"/>
+        <c:crossAx val="77273344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1478,7 +1497,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1896,7 +1915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:BD99"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18:M92"/>
     </sheetView>
   </sheetViews>
@@ -8608,8 +8627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8676,13 +8695,13 @@
     </row>
     <row r="3" spans="1:21" s="10" customFormat="1">
       <c r="P3" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>47</v>
@@ -8699,7 +8718,7 @@
         <v>78</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="P4" s="11">
         <v>4.3</v>
@@ -8708,7 +8727,7 @@
         <v>3</v>
       </c>
       <c r="R4" s="11">
-        <v>3.8571428571428572</v>
+        <v>4.6571428571428601</v>
       </c>
       <c r="S4" s="11">
         <v>1.0894095588038439</v>
@@ -8722,16 +8741,16 @@
     </row>
     <row r="5" spans="1:21">
       <c r="O5" s="13" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="P5" s="10">
         <v>2.4</v>
       </c>
       <c r="Q5" s="10">
-        <v>2.4300000000000002</v>
+        <v>2.73</v>
       </c>
       <c r="R5" s="10">
-        <v>3.7857142857142856</v>
+        <v>4.28571428571429</v>
       </c>
       <c r="S5" s="10">
         <v>1.0818177620697813</v>
@@ -8757,7 +8776,7 @@
         <v>77</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="P6" s="10">
         <v>3.2</v>
@@ -8819,7 +8838,7 @@
         <v>79</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="P7" s="11">
         <v>4</v>
@@ -8842,7 +8861,7 @@
     </row>
     <row r="8" spans="1:21" s="10" customFormat="1">
       <c r="O8" s="13" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="P8" s="10">
         <v>2.9</v>
@@ -8851,7 +8870,7 @@
         <v>3.8571428571428572</v>
       </c>
       <c r="R8" s="10">
-        <v>3.1</v>
+        <v>3.5164300000000002</v>
       </c>
       <c r="S8" s="10">
         <v>0.99724896315087419</v>
@@ -8865,7 +8884,7 @@
     </row>
     <row r="9" spans="1:21" s="10" customFormat="1">
       <c r="O9" s="13" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="P9" s="10">
         <v>2.8</v>
@@ -8891,7 +8910,7 @@
         <v>80</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="P10" s="11">
         <v>4.79</v>
@@ -8926,7 +8945,7 @@
         <v>73</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="P11" s="10">
         <v>3</v>
@@ -8986,7 +9005,7 @@
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="13" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="P12" s="10">
         <v>2.54</v>
@@ -9012,7 +9031,7 @@
         <v>81</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P13" s="10">
         <v>4.7857142857142856</v>
@@ -9036,7 +9055,7 @@
     <row r="14" spans="1:21" s="10" customFormat="1">
       <c r="N14" s="9"/>
       <c r="O14" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P14" s="10">
         <v>3.6428571428571428</v>
@@ -9125,24 +9144,36 @@
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
+      <c r="T25" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="U25" s="9"/>
     </row>
     <row r="26" spans="1:21">
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
+      <c r="T26" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="U26" s="9"/>
     </row>
     <row r="27" spans="1:21">
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
+      <c r="T27" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="U27" s="9"/>
     </row>
     <row r="28" spans="1:21">
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
+      <c r="T28" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="U28" s="9"/>
     </row>
     <row r="29" spans="1:21">
